--- a/ONCHO/Impact Assessments/Cameroon/fr_en/cm_oncho_pre_stop_2_202309_couverture_fr_en.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/fr_en/cm_oncho_pre_stop_2_202309_couverture_fr_en.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA9B925-6AC4-416D-AFE8-9A3274BBBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A1DD44-752F-4A7C-81B7-BAA8D1E58E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,14 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -92,9 +94,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>Ecole</t>
   </si>
   <si>
@@ -281,12 +280,6 @@
     <t>concat(${p_ecole_id}, '_', ${p_num_ordre})</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO - 2.Formulaire Couverture V2</t>
-  </si>
-  <si>
-    <t>cm_oncho_pre_stop_2_202309_couverture_v2</t>
-  </si>
-  <si>
     <t>p_village2</t>
   </si>
   <si>
@@ -306,6 +299,114 @@
   </si>
   <si>
     <t>p_village_id2</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_2_202309_couverture_fr_en_v3</t>
+  </si>
+  <si>
+    <t>(Oct 2023) ONCHO - 2.Formulaire Couverture V3 (EN - FR)</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>label::English</t>
+  </si>
+  <si>
+    <t>hint::English</t>
+  </si>
+  <si>
+    <t>constraint_message::English</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>5 yrs</t>
+  </si>
+  <si>
+    <t>6 yrs</t>
+  </si>
+  <si>
+    <t>7 yrs</t>
+  </si>
+  <si>
+    <t>8 yrs</t>
+  </si>
+  <si>
+    <t>9 yrs</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Select the name of the replaced village</t>
+  </si>
+  <si>
+    <t>Village code</t>
+  </si>
+  <si>
+    <t>Code of replaced village</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>School code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence no. in village/school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final ID no. </t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age in years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many years have you lived in the village? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other place of residence before arrival in village </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment history and adherence (Ivermectin (IVM)) *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last year of IVM treatment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of treatments received in the last 5 years : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If never treated or occasionally treated, state reasons for non-compliance </t>
+  </si>
+  <si>
+    <t>Additional notes</t>
+  </si>
+  <si>
+    <t>Ask your supervisor before selecting</t>
+  </si>
+  <si>
+    <t>("0" if never treated</t>
+  </si>
+  <si>
+    <t>Present the tablets (ivermectin) to the participant</t>
+  </si>
+  <si>
+    <t>The value must not exceed the age</t>
+  </si>
+  <si>
+    <t>The value cannot exceed 5</t>
+  </si>
+  <si>
+    <t>Code Operator/Team</t>
   </si>
 </sst>
 </file>
@@ -363,7 +464,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +477,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -385,22 +498,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,13 +859,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,401 +873,686 @@
     <col min="1" max="1" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="4" customWidth="1"/>
     <col min="3" max="4" width="44.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4"/>
-    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="4"/>
+    <col min="5" max="5" width="53.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4"/>
+    <col min="8" max="8" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="N1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="B12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="B16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="B20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="B21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="9"/>
-    </row>
-    <row r="40" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="10"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="37" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="40" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1144,194 +1570,242 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="4" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="4"/>
+    <col min="3" max="4" width="40.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="15">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="15">
         <v>2017</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>2017</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="D10" s="17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15">
         <v>2018</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>2018</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="D11" s="17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="15">
         <v>2019</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="D12" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="15">
         <v>2020</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="D13" s="17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="15">
         <v>2021</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="16">
         <v>2021</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="D14" s="17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="15">
         <v>2022</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="D15" s="17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="16">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="17">
         <v>2023</v>
       </c>
     </row>
@@ -1355,13 +1829,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1377,13 +1851,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
